--- a/results/FrequencyTables/26796669_gPol1.xlsx
+++ b/results/FrequencyTables/26796669_gPol1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00739638399004931</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.00128825907334192</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.981298032073209</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00268757496335125</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000844031806672293</v>
       </c>
       <c r="G2">
-        <v>0.95</v>
+        <v>0.983163786593221</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00304295677668695</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00106614544000711</v>
       </c>
       <c r="J2">
-        <v>0.97</v>
+        <v>0.96701612544978</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9949580205233</v>
       </c>
       <c r="L2">
-        <v>0.97</v>
+        <v>0.967127182266448</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.967393718626449</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00133268180000888</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000710763626671405</v>
       </c>
       <c r="P2">
-        <v>0.99</v>
+        <v>0.956798898316379</v>
       </c>
       <c r="Q2">
-        <v>0.99</v>
+        <v>0.999289236373329</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.997356847763316</v>
       </c>
       <c r="S2">
-        <v>0.02</v>
+        <v>0.0649904491137666</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00230998178668207</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00111056816667407</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.993869663719959</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.000599706810003998</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00184354315667896</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.00104393407667363</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000666340900004442</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000666340900004442</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.995446670516636</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.996868197769979</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0021545022433477</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000377593176669184</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0019101772466794</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00230998178668207</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00171027497667807</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0034649726800231</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000577495446670517</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.021545022433477</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000111056816667407</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00142152725334281</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>6.66340900004442e-05</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000422015903336147</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.995935320509973</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.997934343209986</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00046643863000311</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000111056816667407</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00168806361334459</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.986850872906579</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000599706810003998</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0141708498067611</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000399804540002665</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.00015547954333437</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00521967038336813</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.996001954599973</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00184354315667896</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.0229443383234863</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00195459997334636</v>
       </c>
       <c r="L4">
-        <v>0.03</v>
+        <v>0.0228999155968193</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0255874905601706</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.88454533339256e-05</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.22113633334814e-05</v>
       </c>
       <c r="P4">
-        <v>0.01</v>
+        <v>0.0356048154235707</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
+        <v>0.000577495446670517</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00186575452001244</v>
       </c>
       <c r="S4">
-        <v>0.98</v>
+        <v>0.923926080582826</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000866243170005775</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>8.88454533339256e-05</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.00219892497001466</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.996512815956643</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.995913109146639</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00204344542668029</v>
       </c>
       <c r="C5">
-        <v>0.99</v>
+        <v>0.997268002309982</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.000732974990004887</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00108835680334059</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00197681133667985</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>0.00628581582337524</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000177690906667851</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.994846963706632</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00204344542668029</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00046643863000311</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.88454533339256e-05</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00126604771000844</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.973479632179823</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999133756829994</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.66340900004442e-05</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.22113633334814e-05</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000177690906667851</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000111056816667407</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000644129536670961</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000621918173337479</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00266536360001777</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00268757496335125</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000377593176669184</v>
       </c>
     </row>
   </sheetData>
